--- a/biology/Zoologie/Cynégétique_(Xénophon)/Cynégétique_(Xénophon).xlsx
+++ b/biology/Zoologie/Cynégétique_(Xénophon)/Cynégétique_(Xénophon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+          <t>Cynégétique_(Xénophon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Cynégétique — De la chasse au chien —  est un traité technique de Xénophon portant principalement sur la chasse à pied avec des chiens, de gibier à poil , du lièvre à la panthère, principalement avec des filets.
-Écrit vers 393, alors que Xénophon venait de s'installer à la tête du vaste domaine de chasse de Scillonte[1], que son ami roi de Sparte, Agésilas II, venait de lui attribuer dans le Péloponnèse à proximité d'Olympie pour services rendus à la cause spartiate et pour lesquels il avait été banni d'Athènes.
+Écrit vers 393, alors que Xénophon venait de s'installer à la tête du vaste domaine de chasse de Scillonte, que son ami roi de Sparte, Agésilas II, venait de lui attribuer dans le Péloponnèse à proximité d'Olympie pour services rendus à la cause spartiate et pour lesquels il avait été banni d'Athènes.
 Son tout premier livre est un manuel technique, un de ses quatre ouvrages dont les titres se terminent en grec en  « —ique » avec l'Hipparque, la Cyropédie, l'Écononomique.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+          <t>Cynégétique_(Xénophon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,34 +528,351 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chapitre I. Les dieux ont enseigné la chasse à Chiron, qui l'a enseignée à son tour à une foule de héros
-La chasse et les chiens sont une invention du dieu Apollon et de la déesse Artémis.
+          <t>Chapitre I. Les dieux ont enseigné la chasse à Chiron, qui l'a enseignée à son tour à une foule de héros</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chasse et les chiens sont une invention du dieu Apollon et de la déesse Artémis.
 C'est par la chasse qu'on devient bon à la guerre et dans tous les arts qui doivent apprendre à bien penser, à bien dire et à bien faire/
-Chapitre II. Trois sortes de filets : leurs structures.
-Les rets, les panneaux et les toiles.
-Chapitre III. Deux espèces de chiens. Chiens de mauvaises qualité
-Les castorides et les alopécides.
-Chapitre IV. Qualités d'un bon chien de chasse. Où et quand on peut l'entrainer.
-Chapitre V. Des traces du lièvre, de son gite, de ses habitudes
-Deux espèces de lièvres : les grands et les petits. Les petits abondent dans les îles. Description du corps du lièvre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chapitre II. Trois sortes de filets : leurs structures.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rets, les panneaux et les toiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chapitre III. Deux espèces de chiens. Chiens de mauvaises qualité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les castorides et les alopécides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chapitre V. Des traces du lièvre, de son gite, de ses habitudes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces de lièvres : les grands et les petits. Les petits abondent dans les îles. Description du corps du lièvre. 
 Préceptes relatifs au terrain de chasse.
-Chapitre VI. Du harnais des chiens, du temps où il faut les sortir, du garde-filet.
-Harnais du chasseur. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chapitre VI. Du harnais des chiens, du temps où il faut les sortir, du garde-filet.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harnais du chasseur. 
 Le lancer, la poursuite, la prise du lièvre.
-Chapitre VII. De l'élevage des chiens de chasse.
-Chapitre VIII. De la chasse au lièvre par temps de neige.
-Chapitre IX. De la chasse aux faons et aux cerfs.
-Avec des javelots et des chausse-trapes. Dans les terres cultivées et en montagne.
-Chapitre X. De la chasse au sanglier.
-Les chiens, les armes, les rets. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chapitre IX. De la chasse aux faons et aux cerfs.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec des javelots et des chausse-trapes. Dans les terres cultivées et en montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chapitre X. De la chasse au sanglier.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chiens, les armes, les rets. 
 La quête et la lutte avec la bête. Diverses manières de la prendre.
-Chapitre XI.  De la chasse aux lions, aux panthères et autres fauves
-Dans des contrées étrangères au-delà de la Macédoine ou en Syrie. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chapitre XI.  De la chasse aux lions, aux panthères et autres fauves</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans des contrées étrangères au-delà de la Macédoine ou en Syrie. 
 Avec un poison, l'aconit, à cheval ou en creusant des fosses circulaires avec une chèvre comme appât.
-Chapitre XII. Utilité de la chasse, principalement pour la guerre. La chasse est aussi une école de vertu.
-L'utilité de la chasse est considérable.
-Chapitre XIII. De l'enseignement des sophistes et de celui de l'auteur. Comparaison des mauvais politiciens et des chasseurs. La jeunesse doit pratiquer la chasse
-Les dieux et les déesses (comme Artémis) aiment à chasser et à voir chasser.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chapitre XII. Utilité de la chasse, principalement pour la guerre. La chasse est aussi une école de vertu.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'utilité de la chasse est considérable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cynégétique_(Xénophon)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyn%C3%A9g%C3%A9tique_(X%C3%A9nophon)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Le livre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chapitre XIII. De l'enseignement des sophistes et de celui de l'auteur. Comparaison des mauvais politiciens et des chasseurs. La jeunesse doit pratiquer la chasse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les dieux et les déesses (comme Artémis) aiment à chasser et à voir chasser.
 </t>
         </is>
       </c>
